--- a/Compilador/BackEnd/AnalizadorLexico/DicionarioTokens/TabelaTokens.xlsx
+++ b/Compilador/BackEnd/AnalizadorLexico/DicionarioTokens/TabelaTokens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harpa\Desktop\PROJETOS\EduardoCompilador\Compilador\Compilador\BackEnd\AnalizadorLexico\DicionarioTokens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projetos\Compilador.old\Compilador\BackEnd\AnalizadorLexico\DicionarioTokens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC343C2A-0EB2-4A70-BFE2-64E907CD9528}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B62C56-2A16-4989-9813-A07C14F03378}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{580295A9-8350-4006-896D-5FD8D8C0C774}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{580295A9-8350-4006-896D-5FD8D8C0C774}"/>
   </bookViews>
   <sheets>
     <sheet name="fonte" sheetId="1" r:id="rId1"/>
@@ -32,93 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Const</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>Begin</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Of</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>Goto</t>
-  </si>
-  <si>
-    <t>If</t>
-  </si>
-  <si>
-    <t>Then</t>
-  </si>
-  <si>
-    <t>Else</t>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>Until</t>
-  </si>
-  <si>
-    <t>Readln</t>
-  </si>
-  <si>
-    <t>Writeln</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Not</t>
-  </si>
-  <si>
-    <t>Identificador</t>
-  </si>
-  <si>
-    <t>Inteiro</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -173,9 +86,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>literal</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -189,6 +99,96 @@
   </si>
   <si>
     <t>SIMBOLO</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>CONST</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>ARRAY</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>GOTO</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>THEN</t>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>UNTIL</t>
+  </si>
+  <si>
+    <t>READLN</t>
+  </si>
+  <si>
+    <t>WRITELN</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>IDENTIFICADOR</t>
+  </si>
+  <si>
+    <t>INTEIRO</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>LITERAL</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -656,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,15 +672,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -689,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +794,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +834,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +850,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +858,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +866,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +874,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +882,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +898,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +906,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +914,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +922,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +930,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +938,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +946,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,7 +954,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,7 +962,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,7 +970,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -978,7 +979,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
